--- a/Book.xlsx
+++ b/Book.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E353514-E453-42DA-B1A8-2D51CDA2D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AE5A7D-E35B-47CB-8858-C389C85B516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,13 +54,13 @@
     <t>rua b</t>
   </si>
   <si>
-    <t>https://via.placeholder.com/500x500/0000FF/FFFFFF?text=Casa+Lisboa</t>
+    <t>https://imgs.search.brave.com/ZZK87qvHLWKWmrJF2WevG_VH7QR3AHug5iWMkMoesO0/rs:fit:860:0:0:0/g:ce/aHR0cHM6Ly9jZG4u/Y3JlYXRlLnZpc3Rh/LmNvbS9hcGkvbWVk/aWEvc21hbGwvMjU3/MjgyODYwL3N0b2Nr/LXBob3RvLWNvc3Rh/LW5vdmEtcG9ydHVn/YWwtY29sb3JmdWwt/c3RyaXBlZC1ob3Vz/ZXMtaW4tYS1iZWFj/aC12aWxsYWdl</t>
   </si>
   <si>
     <t>rua c</t>
   </si>
   <si>
-    <t>https://via.placeholder.com/500x500/008000/FFFFFF?text=Casa+Braga</t>
+    <t>https://imgs.search.brave.com/WvqaWoWw2js846T5SwbqntfDIervYmu-yqq6-WerMy4/rs:fit:860:0:0:0/g:ce/aHR0cHM6Ly9jZi5i/c3RhdGljLmNvbS94/ZGF0YS9pbWFnZXMv/aG90ZWwvbWF4MTAy/NHg3NjgvNDk2MzAx/MjEzLmpwZz9rPWM4/NjgyMzVkNGU2ZDdi/NTYwOTY5YmJmYjI2/YjlhOGU2MTRjMWFl/MTBkZWNkYjhlNzRj/ZjEyZWEwZDA3M2E5/NWEmbz0maHA9MQ</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,8 +513,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{B560329A-4B72-454B-B3BD-D9E2EEC115AC}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{7B1D51CD-EA85-4E88-B31D-4BBA0FB30C0D}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{7237833F-4238-4D5E-A478-3DD9B443D793}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://imgs.search.brave.com/ZZK87qvHLWKWmrJF2WevG_VH7QR3AHug5iWMkMoesO0/rs:fit:860:0:0:0/g:ce/aHR0cHM6Ly9jZG4u/Y3JlYXRlLnZpc3Rh/LmNvbS9hcGkvbWVk/aWEvc21hbGwvMjU3/MjgyODYwL3N0b2Nr/LXBob3RvLWNvc3Rh/LW5vdmEtcG9ydHVn/YWwtY29sb3JmdWwt/c3RyaXBlZC1ob3Vz/ZXMtaW4tYS1iZWFj/aC12aWxsYWdl" xr:uid="{7B1D51CD-EA85-4E88-B31D-4BBA0FB30C0D}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://imgs.search.brave.com/WvqaWoWw2js846T5SwbqntfDIervYmu-yqq6-WerMy4/rs:fit:860:0:0:0/g:ce/aHR0cHM6Ly9jZi5i/c3RhdGljLmNvbS94/ZGF0YS9pbWFnZXMv/aG90ZWwvbWF4MTAy/NHg3NjgvNDk2MzAx/MjEzLmpwZz9rPWM4/NjgyMzVkNGU2ZDdi/NTYwOTY5YmJmYjI2/YjlhOGU2MTRjMWFl/MTBkZWNkYjhlNzRj/ZjEyZWEwZDA3M2E5/NWEmbz0maHA9MQ" xr:uid="{7237833F-4238-4D5E-A478-3DD9B443D793}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
